--- a/Assets/300_Data/ExcelData/LevelDataTable.xlsx
+++ b/Assets/300_Data/ExcelData/LevelDataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Project\LevelDesignDev\LevelDesignDev\Assets\300_Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8FF676-76AE-4CA6-9CF8-B2070A934FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DC894F-1258-44DC-9E2C-FFD3953956C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="1650" windowWidth="18000" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="1275" windowWidth="28980" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage01" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,7 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -440,7 +440,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -704,7 +704,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
@@ -715,7 +715,7 @@
         <v>5</v>
       </c>
       <c r="B29" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>6</v>
